--- a/_notes/bola-de-fogo.xlsx
+++ b/_notes/bola-de-fogo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t xml:space="preserve">PERFIL DO JOGADOR</t>
   </si>
@@ -172,7 +172,19 @@
     <t xml:space="preserve">ROLL TEAMS</t>
   </si>
   <si>
-    <t xml:space="preserve">GAME.JSX</t>
+    <t xml:space="preserve">REDUCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISTA &gt; PLAYERS / PAYMENT &gt; TEAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGE STATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USECONTEXT</t>
   </si>
   <si>
     <t xml:space="preserve">PLAYERS</t>
@@ -181,10 +193,7 @@
     <t xml:space="preserve">TEAMS</t>
   </si>
   <si>
-    <t xml:space="preserve">INPUT.JSX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEAM.JSX</t>
+    <t xml:space="preserve">PAYMENT</t>
   </si>
 </sst>
 </file>
@@ -292,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,6 +331,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,7 +411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -408,7 +421,7 @@
       <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.89"/>
   </cols>
@@ -1055,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1065,7 +1078,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="6" width="11.53"/>
@@ -1175,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1185,7 +1198,7 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -1250,39 +1263,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="K2" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>53</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
